--- a/Faktura.xlsx
+++ b/Faktura.xlsx
@@ -1,148 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programowanie\Python3\pythonProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E5204C-B300-4959-A24C-11E94AD413FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Faktura" sheetId="1" r:id="rId1"/>
+    <sheet name="Faktura" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitleRegion1..B4.1">Faktura!$B$2</definedName>
     <definedName name="ColumnTitleRegion2..C9.1">Faktura!$B$6</definedName>
     <definedName name="Nazwa_firmy">Faktura!$B$2</definedName>
     <definedName name="Tytuł_kolumny_1">Szczegóły_faktury[[#Headers],[Szczegóły]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Faktura!$10:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Faktura'!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>FAKTURA</t>
-  </si>
-  <si>
-    <t>Firma Drucik</t>
-  </si>
-  <si>
-    <t>Ulica Pokątna
-Mława, 78-910</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>FAKTURA DLA</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>Zachodniopomorska Szkoła Biznesu – Akademia Nauk Stosowanych, ul. Żołnierska 53 71-210 Szczecin, NIP: 8520019079</t>
-  </si>
-  <si>
-    <t>Towary i usługi</t>
-  </si>
-  <si>
-    <t>Szczegóły</t>
-  </si>
-  <si>
-    <t>KWOTA</t>
-  </si>
-  <si>
-    <t>SUMA CZĘŚCIOWA</t>
-  </si>
-  <si>
-    <t>STAWKA PODATKOWA</t>
-  </si>
-  <si>
-    <t>INNE</t>
-  </si>
-  <si>
-    <t>SUMA</t>
-  </si>
-  <si>
-    <t>W razie jakichkolwiek pytań dotyczących tej faktury należy skontaktować się z następującą osobą:</t>
-  </si>
-  <si>
-    <t>Sławomir Ostrowski</t>
-  </si>
-  <si>
-    <t>DZIĘKUJEMY ZA KORZYSTANIE Z NASZYCH USŁUG!</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-##\-##;\(###\)\ ###\-##\-##"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="4"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="29"/>
-      <color theme="5"/>
       <name val="Georgia"/>
       <family val="2"/>
+      <color theme="5"/>
+      <sz val="29"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="4"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="5"/>
       <name val="Georgia"/>
       <family val="1"/>
+      <color theme="5"/>
+      <sz val="15"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="4"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -164,87 +87,87 @@
     </border>
   </borders>
   <cellStyleXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="7">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Data" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Tytuł" xfId="1" builtinId="15"/>
     <cellStyle name="Nagłówek 1" xfId="2" builtinId="16"/>
     <cellStyle name="Nagłówek 2" xfId="3" builtinId="17"/>
     <cellStyle name="Nagłówek 3" xfId="4" builtinId="18"/>
     <cellStyle name="Nagłówek 4" xfId="5" builtinId="19"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Opis produktu" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Procentowy" xfId="6" builtinId="5"/>
+    <cellStyle name="Data" xfId="7"/>
+    <cellStyle name="Walutowy" xfId="8" builtinId="4"/>
     <cellStyle name="Tekst objaśnienia" xfId="9" builtinId="53"/>
-    <cellStyle name="Telefon" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Tytuł" xfId="1" builtinId="15"/>
-    <cellStyle name="Walutowy" xfId="8" builtinId="4"/>
+    <cellStyle name="Opis produktu" xfId="10"/>
+    <cellStyle name="Telefon" xfId="11"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -252,7 +175,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="4"/>
       </font>
       <fill>
@@ -280,18 +203,18 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="4"/>
       </font>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="4"/>
       </font>
       <border>
@@ -315,7 +238,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Faktura" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Faktura" pivot="0" count="6">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -324,23 +247,83 @@
       <tableStyleElement type="lastTotalCell" dxfId="1"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Szczegóły_faktury" displayName="Szczegóły_faktury" ref="B10:C14">
-  <autoFilter ref="B10:C14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Szczegóły_faktury" displayName="Szczegóły_faktury" ref="B10:C14" headerRowCount="1">
+  <autoFilter ref="B10:C14"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Szczegóły" totalsRowLabel="Suma"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="KWOTA" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Walutowy"/>
+    <tableColumn id="1" name="Szczegóły" totalsRowLabel="Suma"/>
+    <tableColumn id="2" name="KWOTA" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Walutowy"/>
   </tableColumns>
   <tableStyleInfo name="Faktura" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,152 +531,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="52.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="10" customWidth="1"/>
+    <col width="2.625" customWidth="1" style="12" min="1" max="1"/>
+    <col width="52.375" customWidth="1" style="12" min="2" max="2"/>
+    <col width="31.875" customWidth="1" style="12" min="3" max="3"/>
+    <col width="2.625" customWidth="1" style="12" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>10</v>
+    <row r="1" ht="30" customHeight="1" s="12">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FAKTURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="50.1" customHeight="1" s="12">
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Firma Drucik</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" s="12">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Ulica Pokątna
+Mława, 78-910</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" s="12">
+      <c r="B4" s="9" t="n"/>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" s="12">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" s="12">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>FAKTURA DLA</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" s="12">
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Sodexo, Jutrzenki 137 02-231 Warszawa, NIP: 1180038498</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>Towary i usługi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" s="12"/>
+    <row r="9" ht="18" customHeight="1" s="12"/>
+    <row r="10" ht="30" customHeight="1" s="12">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Szczegóły</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>KWOTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" s="12">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Zasilacz awaryjny UPS 650VA</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>149.5</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" s="12">
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Dok stacja do SSD M.2</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="12">
+      <c r="C13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="12">
+      <c r="C14" s="6" t="n"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" s="12">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>SUMA CZĘŚCIOWA</t>
+        </is>
       </c>
       <c r="C15" s="6">
         <f>IFERROR(SUM(Szczegóły_faktury[KWOTA]), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" s="12">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>STAWKA PODATKOWA</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" s="12">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>INNE</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>13</v>
+    <row r="18" ht="30" customHeight="1" s="12">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>SUMA</t>
+        </is>
       </c>
       <c r="C18" s="6">
         <f>IFERROR(C15*(1+C16)+C17, "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="8.449999999999999" customHeight="1" s="12">
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" s="12">
+      <c r="B20" s="11" t="n"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" s="12">
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>W razie jakichkolwiek pytań dotyczących tej faktury należy skontaktować się z następującą osobą:</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" s="12">
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>Sławomir Ostrowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" s="12">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>DZIĘKUJEMY ZA KORZYSTANIE Z NASZYCH USŁUG!</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -705,36 +727,41 @@
     <mergeCell ref="B7:B9"/>
   </mergeCells>
   <dataValidations count="24">
-    <dataValidation showErrorMessage="1" sqref="A2:A1048576 B11:B14 B23:B1048576 C1:C5 C11:C14 C23:C1048576 D1:XFD1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Utwórz fakturę w tym arkuszu. Wprowadź szczegóły faktury, opisy pozycji, kwotę, stawkę podatku i inne koszty. Sumy częściowe i suma łączna są obliczane automatycznie" sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź numer faktury. Wprowadź szczegóły firmy wystawiającej fakturę i klienta w komórkach poniżej" sqref="B1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź nazwę firmy wystawiającej fakturę" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź adres, kod pocztowy i miasto firmy wystawiającej fakturę" sqref="B3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź numery telefonu i faksu" sqref="B4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź datę faktury" sqref="B5" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Wprowadź szczegóły klienta otrzymującego fakturę w komórce poniżej" sqref="B6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W komórce poniżej wprowadź opis produktu, którego dotyczy faktura" sqref="C6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź nazwę klienta lub firmy otrzymującej fakturę" sqref="B7" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź opis produktu" sqref="C7:C9" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej kolumnie pod tym nagłówkiem wprowadź szczegóły faktury. Za pomocą filtrów nagłówków możesz znaleźć konkretne wpisy" sqref="B10" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej kolumnie pod tym nagłówkiem wprowadź kwotę dla każdego opisu z kolumny B. W komórce poniżej tabeli wprowadź stawkę podatku i wszelkie inne koszty, aby obliczyć sumę częściową i sumę łączną" sqref="C10" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Suma częściowa jest obliczana automatycznie w komórce z prawej strony" sqref="B15" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce jest automatycznie obliczana suma częściowa" sqref="C15" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W komórce po prawej stronie wprowadź stawkę podatkową" sqref="B16" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź stawkę podatkową" sqref="C16" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W komórce z prawej strony wprowadź wszelkie inne koszty" sqref="B17" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź wszelkie inne koszty" sqref="C17" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W komórce z prawej strony jest automatycznie obliczana suma łączna" sqref="B18:B19" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce jest automatycznie obliczana suma łączna" sqref="C18:C19" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce jest automatycznie dodawana nazwa firmy" sqref="B20:C20" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W komórce poniżej wprowadź szczegóły kontaktu." sqref="B21:C21" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="W tej komórce wprowadź nazwę kontaktu, numer telefonu i adres e-mail" sqref="B22:C22" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
+    <dataValidation sqref="A2:A1048576 B11:B14 B23:B1048576 C1:C5 C11:C14 C23:C1048576 D1:XFD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0"/>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Utwórz fakturę w tym arkuszu. Wprowadź szczegóły faktury, opisy pozycji, kwotę, stawkę podatku i inne koszty. Sumy częściowe i suma łączna są obliczane automatycznie"/>
+    <dataValidation sqref="B1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź numer faktury. Wprowadź szczegóły firmy wystawiającej fakturę i klienta w komórkach poniżej"/>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź nazwę firmy wystawiającej fakturę"/>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź adres, kod pocztowy i miasto firmy wystawiającej fakturę"/>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź numery telefonu i faksu"/>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź datę faktury"/>
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Wprowadź szczegóły klienta otrzymującego fakturę w komórce poniżej"/>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W komórce poniżej wprowadź opis produktu, którego dotyczy faktura"/>
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź nazwę klienta lub firmy otrzymującej fakturę"/>
+    <dataValidation sqref="C7:C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź opis produktu"/>
+    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej kolumnie pod tym nagłówkiem wprowadź szczegóły faktury. Za pomocą filtrów nagłówków możesz znaleźć konkretne wpisy"/>
+    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej kolumnie pod tym nagłówkiem wprowadź kwotę dla każdego opisu z kolumny B. W komórce poniżej tabeli wprowadź stawkę podatku i wszelkie inne koszty, aby obliczyć sumę częściową i sumę łączną"/>
+    <dataValidation sqref="B15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Suma częściowa jest obliczana automatycznie w komórce z prawej strony"/>
+    <dataValidation sqref="C15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce jest automatycznie obliczana suma częściowa"/>
+    <dataValidation sqref="B16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W komórce po prawej stronie wprowadź stawkę podatkową"/>
+    <dataValidation sqref="C16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź stawkę podatkową"/>
+    <dataValidation sqref="B17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W komórce z prawej strony wprowadź wszelkie inne koszty"/>
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź wszelkie inne koszty"/>
+    <dataValidation sqref="B18:B19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W komórce z prawej strony jest automatycznie obliczana suma łączna"/>
+    <dataValidation sqref="C18:C19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce jest automatycznie obliczana suma łączna"/>
+    <dataValidation sqref="B20:C20" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce jest automatycznie dodawana nazwa firmy"/>
+    <dataValidation sqref="B21:C21" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W komórce poniżej wprowadź szczegóły kontaktu."/>
+    <dataValidation sqref="B22:C22" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="W tej komórce wprowadź nazwę kontaktu, numer telefonu i adres e-mail"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0"/>
   <headerFooter differentFirst="1">
+    <oddHeader/>
     <oddFooter>&amp;L&amp;C&amp;R</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Faktura.xlsx
+++ b/Faktura.xlsx
@@ -577,10 +577,8 @@
       <c r="B4" s="9" t="n"/>
     </row>
     <row r="5" ht="24.95" customHeight="1" s="12">
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>DATA</t>
-        </is>
+      <c r="B5" s="3" t="n">
+        <v>45336</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" s="12">
@@ -599,7 +597,7 @@
       <c r="A7" s="0" t="n"/>
       <c r="B7" s="14" t="inlineStr">
         <is>
-          <t>Sodexo, Jutrzenki 137 02-231 Warszawa, NIP: 1180038498</t>
+          <t>Zachodniopomorska Szkoła Biznesu – Akademia Nauk Stosowanych, ul. Żołnierska 53 71-210 Szczecin, NIP: 8520019079</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -625,21 +623,21 @@
     <row r="11" ht="30" customHeight="1" s="12">
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Zasilacz awaryjny UPS 650VA</t>
+          <t>Pamięć RAM DDR4 16GB</t>
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>149.5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" s="12">
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Dok stacja do SSD M.2</t>
+          <t>Przełącznik KVM USB</t>
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>163</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" s="12">
